--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_168.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_168.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g33047-d647784-Reviews-Courtyard_Santa_Clarita_Valencia-Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>308</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>316</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Courtyard-By-Marriott-Santa-Clarita-Valencia.h1632124.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_168.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_168.xlsx
@@ -5691,7 +5691,7 @@
         <v>54841</v>
       </c>
       <c r="B3" t="n">
-        <v>133399</v>
+        <v>164230</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -5756,7 +5756,7 @@
         <v>54841</v>
       </c>
       <c r="B4" t="n">
-        <v>133400</v>
+        <v>164231</v>
       </c>
       <c r="C4" t="s">
         <v>69</v>
@@ -5955,7 +5955,7 @@
         <v>54841</v>
       </c>
       <c r="B7" t="n">
-        <v>133401</v>
+        <v>164232</v>
       </c>
       <c r="C7" t="s">
         <v>101</v>
@@ -6020,7 +6020,7 @@
         <v>54841</v>
       </c>
       <c r="B8" t="n">
-        <v>133402</v>
+        <v>164233</v>
       </c>
       <c r="C8" t="s">
         <v>111</v>
@@ -6156,7 +6156,7 @@
         <v>54841</v>
       </c>
       <c r="B10" t="n">
-        <v>133403</v>
+        <v>164234</v>
       </c>
       <c r="C10" t="s">
         <v>131</v>
@@ -6292,7 +6292,7 @@
         <v>54841</v>
       </c>
       <c r="B12" t="n">
-        <v>133404</v>
+        <v>164235</v>
       </c>
       <c r="C12" t="s">
         <v>149</v>
@@ -6363,7 +6363,7 @@
         <v>54841</v>
       </c>
       <c r="B13" t="n">
-        <v>133405</v>
+        <v>164236</v>
       </c>
       <c r="C13" t="s">
         <v>159</v>
@@ -6497,7 +6497,7 @@
         <v>54841</v>
       </c>
       <c r="B15" t="n">
-        <v>133406</v>
+        <v>164237</v>
       </c>
       <c r="C15" t="s">
         <v>178</v>
@@ -6562,7 +6562,7 @@
         <v>54841</v>
       </c>
       <c r="B16" t="n">
-        <v>133407</v>
+        <v>164238</v>
       </c>
       <c r="C16" t="s">
         <v>188</v>
@@ -6627,7 +6627,7 @@
         <v>54841</v>
       </c>
       <c r="B17" t="n">
-        <v>133408</v>
+        <v>164239</v>
       </c>
       <c r="C17" t="s">
         <v>195</v>
@@ -6698,7 +6698,7 @@
         <v>54841</v>
       </c>
       <c r="B18" t="n">
-        <v>133409</v>
+        <v>164240</v>
       </c>
       <c r="C18" t="s">
         <v>204</v>
@@ -6763,7 +6763,7 @@
         <v>54841</v>
       </c>
       <c r="B19" t="n">
-        <v>133410</v>
+        <v>164241</v>
       </c>
       <c r="C19" t="s">
         <v>213</v>
@@ -6828,7 +6828,7 @@
         <v>54841</v>
       </c>
       <c r="B20" t="n">
-        <v>133411</v>
+        <v>164242</v>
       </c>
       <c r="C20" t="s">
         <v>223</v>
@@ -6893,7 +6893,7 @@
         <v>54841</v>
       </c>
       <c r="B21" t="n">
-        <v>133412</v>
+        <v>164243</v>
       </c>
       <c r="C21" t="s">
         <v>233</v>
@@ -6962,7 +6962,7 @@
         <v>54841</v>
       </c>
       <c r="B22" t="n">
-        <v>133413</v>
+        <v>164244</v>
       </c>
       <c r="C22" t="s">
         <v>243</v>
@@ -7157,7 +7157,7 @@
         <v>54841</v>
       </c>
       <c r="B25" t="n">
-        <v>133414</v>
+        <v>164245</v>
       </c>
       <c r="C25" t="s">
         <v>265</v>
@@ -7287,7 +7287,7 @@
         <v>54841</v>
       </c>
       <c r="B27" t="n">
-        <v>133415</v>
+        <v>164246</v>
       </c>
       <c r="C27" t="s">
         <v>284</v>
@@ -7358,7 +7358,7 @@
         <v>54841</v>
       </c>
       <c r="B28" t="n">
-        <v>133416</v>
+        <v>164247</v>
       </c>
       <c r="C28" t="s">
         <v>293</v>
@@ -7429,7 +7429,7 @@
         <v>54841</v>
       </c>
       <c r="B29" t="n">
-        <v>133417</v>
+        <v>164248</v>
       </c>
       <c r="C29" t="s">
         <v>302</v>
@@ -7500,7 +7500,7 @@
         <v>54841</v>
       </c>
       <c r="B30" t="n">
-        <v>133418</v>
+        <v>164249</v>
       </c>
       <c r="C30" t="s">
         <v>311</v>
@@ -7571,7 +7571,7 @@
         <v>54841</v>
       </c>
       <c r="B31" t="n">
-        <v>133419</v>
+        <v>164250</v>
       </c>
       <c r="C31" t="s">
         <v>321</v>
@@ -7642,7 +7642,7 @@
         <v>54841</v>
       </c>
       <c r="B32" t="n">
-        <v>133420</v>
+        <v>164251</v>
       </c>
       <c r="C32" t="s">
         <v>330</v>
@@ -7778,7 +7778,7 @@
         <v>54841</v>
       </c>
       <c r="B34" t="n">
-        <v>133421</v>
+        <v>164252</v>
       </c>
       <c r="C34" t="s">
         <v>348</v>
@@ -7985,7 +7985,7 @@
         <v>54841</v>
       </c>
       <c r="B37" t="n">
-        <v>133422</v>
+        <v>164253</v>
       </c>
       <c r="C37" t="s">
         <v>376</v>
@@ -8125,7 +8125,7 @@
         <v>54841</v>
       </c>
       <c r="B39" t="n">
-        <v>133423</v>
+        <v>164254</v>
       </c>
       <c r="C39" t="s">
         <v>395</v>
@@ -8190,7 +8190,7 @@
         <v>54841</v>
       </c>
       <c r="B40" t="n">
-        <v>133424</v>
+        <v>164255</v>
       </c>
       <c r="C40" t="s">
         <v>404</v>
@@ -8259,7 +8259,7 @@
         <v>54841</v>
       </c>
       <c r="B41" t="n">
-        <v>133425</v>
+        <v>164256</v>
       </c>
       <c r="C41" t="s">
         <v>410</v>
@@ -8330,7 +8330,7 @@
         <v>54841</v>
       </c>
       <c r="B42" t="n">
-        <v>133426</v>
+        <v>133413</v>
       </c>
       <c r="C42" t="s">
         <v>420</v>
@@ -8399,7 +8399,7 @@
         <v>54841</v>
       </c>
       <c r="B43" t="n">
-        <v>133427</v>
+        <v>164257</v>
       </c>
       <c r="C43" t="s">
         <v>429</v>
@@ -8468,7 +8468,7 @@
         <v>54841</v>
       </c>
       <c r="B44" t="n">
-        <v>133428</v>
+        <v>164258</v>
       </c>
       <c r="C44" t="s">
         <v>435</v>
@@ -8539,7 +8539,7 @@
         <v>54841</v>
       </c>
       <c r="B45" t="n">
-        <v>133429</v>
+        <v>164259</v>
       </c>
       <c r="C45" t="s">
         <v>445</v>
@@ -8610,7 +8610,7 @@
         <v>54841</v>
       </c>
       <c r="B46" t="n">
-        <v>133430</v>
+        <v>164260</v>
       </c>
       <c r="C46" t="s">
         <v>455</v>
@@ -8744,7 +8744,7 @@
         <v>54841</v>
       </c>
       <c r="B48" t="n">
-        <v>133431</v>
+        <v>164261</v>
       </c>
       <c r="C48" t="s">
         <v>475</v>
@@ -8815,7 +8815,7 @@
         <v>54841</v>
       </c>
       <c r="B49" t="n">
-        <v>133432</v>
+        <v>164262</v>
       </c>
       <c r="C49" t="s">
         <v>485</v>
@@ -8884,7 +8884,7 @@
         <v>54841</v>
       </c>
       <c r="B50" t="n">
-        <v>133433</v>
+        <v>164263</v>
       </c>
       <c r="C50" t="s">
         <v>494</v>
@@ -9014,7 +9014,7 @@
         <v>54841</v>
       </c>
       <c r="B52" t="n">
-        <v>133434</v>
+        <v>164264</v>
       </c>
       <c r="C52" t="s">
         <v>512</v>
@@ -9079,7 +9079,7 @@
         <v>54841</v>
       </c>
       <c r="B53" t="n">
-        <v>133435</v>
+        <v>164265</v>
       </c>
       <c r="C53" t="s">
         <v>521</v>
@@ -9148,7 +9148,7 @@
         <v>54841</v>
       </c>
       <c r="B54" t="n">
-        <v>133436</v>
+        <v>164266</v>
       </c>
       <c r="C54" t="s">
         <v>531</v>
@@ -9217,7 +9217,7 @@
         <v>54841</v>
       </c>
       <c r="B55" t="n">
-        <v>133437</v>
+        <v>164267</v>
       </c>
       <c r="C55" t="s">
         <v>540</v>
@@ -9282,7 +9282,7 @@
         <v>54841</v>
       </c>
       <c r="B56" t="n">
-        <v>133438</v>
+        <v>164268</v>
       </c>
       <c r="C56" t="s">
         <v>550</v>
@@ -9343,7 +9343,7 @@
         <v>54841</v>
       </c>
       <c r="B57" t="n">
-        <v>133439</v>
+        <v>164269</v>
       </c>
       <c r="C57" t="s">
         <v>559</v>
@@ -9408,7 +9408,7 @@
         <v>54841</v>
       </c>
       <c r="B58" t="n">
-        <v>133440</v>
+        <v>164270</v>
       </c>
       <c r="C58" t="s">
         <v>568</v>
@@ -9479,7 +9479,7 @@
         <v>54841</v>
       </c>
       <c r="B59" t="n">
-        <v>133441</v>
+        <v>164271</v>
       </c>
       <c r="C59" t="s">
         <v>577</v>
@@ -9550,7 +9550,7 @@
         <v>54841</v>
       </c>
       <c r="B60" t="n">
-        <v>133442</v>
+        <v>164272</v>
       </c>
       <c r="C60" t="s">
         <v>587</v>
@@ -9619,7 +9619,7 @@
         <v>54841</v>
       </c>
       <c r="B61" t="n">
-        <v>133443</v>
+        <v>164273</v>
       </c>
       <c r="C61" t="s">
         <v>597</v>
@@ -9680,7 +9680,7 @@
         <v>54841</v>
       </c>
       <c r="B62" t="n">
-        <v>133444</v>
+        <v>164274</v>
       </c>
       <c r="C62" t="s">
         <v>606</v>
@@ -9749,7 +9749,7 @@
         <v>54841</v>
       </c>
       <c r="B63" t="n">
-        <v>133445</v>
+        <v>164275</v>
       </c>
       <c r="C63" t="s">
         <v>615</v>
@@ -9818,7 +9818,7 @@
         <v>54841</v>
       </c>
       <c r="B64" t="n">
-        <v>133446</v>
+        <v>164276</v>
       </c>
       <c r="C64" t="s">
         <v>623</v>
@@ -9883,7 +9883,7 @@
         <v>54841</v>
       </c>
       <c r="B65" t="n">
-        <v>133447</v>
+        <v>164277</v>
       </c>
       <c r="C65" t="s">
         <v>630</v>
@@ -9954,7 +9954,7 @@
         <v>54841</v>
       </c>
       <c r="B66" t="n">
-        <v>133448</v>
+        <v>164278</v>
       </c>
       <c r="C66" t="s">
         <v>639</v>
@@ -10025,7 +10025,7 @@
         <v>54841</v>
       </c>
       <c r="B67" t="n">
-        <v>133449</v>
+        <v>164279</v>
       </c>
       <c r="C67" t="s">
         <v>649</v>
@@ -10094,7 +10094,7 @@
         <v>54841</v>
       </c>
       <c r="B68" t="n">
-        <v>133450</v>
+        <v>164280</v>
       </c>
       <c r="C68" t="s">
         <v>658</v>
@@ -10163,7 +10163,7 @@
         <v>54841</v>
       </c>
       <c r="B69" t="n">
-        <v>133451</v>
+        <v>164281</v>
       </c>
       <c r="C69" t="s">
         <v>668</v>
@@ -10228,7 +10228,7 @@
         <v>54841</v>
       </c>
       <c r="B70" t="n">
-        <v>133452</v>
+        <v>164282</v>
       </c>
       <c r="C70" t="s">
         <v>676</v>
@@ -10299,7 +10299,7 @@
         <v>54841</v>
       </c>
       <c r="B71" t="n">
-        <v>133453</v>
+        <v>164283</v>
       </c>
       <c r="C71" t="s">
         <v>685</v>
@@ -10370,7 +10370,7 @@
         <v>54841</v>
       </c>
       <c r="B72" t="n">
-        <v>133425</v>
+        <v>133413</v>
       </c>
       <c r="C72" t="s">
         <v>420</v>
@@ -10441,7 +10441,7 @@
         <v>54841</v>
       </c>
       <c r="B73" t="n">
-        <v>133454</v>
+        <v>164284</v>
       </c>
       <c r="C73" t="s">
         <v>702</v>
@@ -10510,7 +10510,7 @@
         <v>54841</v>
       </c>
       <c r="B74" t="n">
-        <v>133455</v>
+        <v>164285</v>
       </c>
       <c r="C74" t="s">
         <v>711</v>
@@ -10581,7 +10581,7 @@
         <v>54841</v>
       </c>
       <c r="B75" t="n">
-        <v>133456</v>
+        <v>164286</v>
       </c>
       <c r="C75" t="s">
         <v>721</v>
@@ -10642,7 +10642,7 @@
         <v>54841</v>
       </c>
       <c r="B76" t="n">
-        <v>133457</v>
+        <v>164287</v>
       </c>
       <c r="C76" t="s">
         <v>728</v>
@@ -10713,7 +10713,7 @@
         <v>54841</v>
       </c>
       <c r="B77" t="n">
-        <v>133458</v>
+        <v>164288</v>
       </c>
       <c r="C77" t="s">
         <v>737</v>
@@ -10847,7 +10847,7 @@
         <v>54841</v>
       </c>
       <c r="B79" t="n">
-        <v>133459</v>
+        <v>164289</v>
       </c>
       <c r="C79" t="s">
         <v>755</v>
@@ -10912,7 +10912,7 @@
         <v>54841</v>
       </c>
       <c r="B80" t="n">
-        <v>133460</v>
+        <v>164290</v>
       </c>
       <c r="C80" t="s">
         <v>765</v>
@@ -10981,7 +10981,7 @@
         <v>54841</v>
       </c>
       <c r="B81" t="n">
-        <v>133461</v>
+        <v>164291</v>
       </c>
       <c r="C81" t="s">
         <v>775</v>
@@ -11050,7 +11050,7 @@
         <v>54841</v>
       </c>
       <c r="B82" t="n">
-        <v>133462</v>
+        <v>164292</v>
       </c>
       <c r="C82" t="s">
         <v>785</v>
@@ -11188,7 +11188,7 @@
         <v>54841</v>
       </c>
       <c r="B84" t="n">
-        <v>133463</v>
+        <v>164293</v>
       </c>
       <c r="C84" t="s">
         <v>802</v>
@@ -11326,7 +11326,7 @@
         <v>54841</v>
       </c>
       <c r="B86" t="n">
-        <v>133464</v>
+        <v>164294</v>
       </c>
       <c r="C86" t="s">
         <v>817</v>
@@ -11395,7 +11395,7 @@
         <v>54841</v>
       </c>
       <c r="B87" t="n">
-        <v>133465</v>
+        <v>164295</v>
       </c>
       <c r="C87" t="s">
         <v>826</v>
@@ -11462,7 +11462,7 @@
         <v>54841</v>
       </c>
       <c r="B88" t="n">
-        <v>133466</v>
+        <v>164296</v>
       </c>
       <c r="C88" t="s">
         <v>832</v>
@@ -11596,7 +11596,7 @@
         <v>54841</v>
       </c>
       <c r="B90" t="n">
-        <v>133467</v>
+        <v>164297</v>
       </c>
       <c r="C90" t="s">
         <v>849</v>
@@ -11665,7 +11665,7 @@
         <v>54841</v>
       </c>
       <c r="B91" t="n">
-        <v>133468</v>
+        <v>164298</v>
       </c>
       <c r="C91" t="s">
         <v>858</v>
@@ -11734,7 +11734,7 @@
         <v>54841</v>
       </c>
       <c r="B92" t="n">
-        <v>133469</v>
+        <v>164299</v>
       </c>
       <c r="C92" t="s">
         <v>867</v>
@@ -11805,7 +11805,7 @@
         <v>54841</v>
       </c>
       <c r="B93" t="n">
-        <v>133470</v>
+        <v>164300</v>
       </c>
       <c r="C93" t="s">
         <v>877</v>
@@ -11870,7 +11870,7 @@
         <v>54841</v>
       </c>
       <c r="B94" t="n">
-        <v>133471</v>
+        <v>164301</v>
       </c>
       <c r="C94" t="s">
         <v>886</v>
@@ -12081,7 +12081,7 @@
         <v>54841</v>
       </c>
       <c r="B97" t="n">
-        <v>133472</v>
+        <v>133435</v>
       </c>
       <c r="C97" t="s">
         <v>913</v>
@@ -12152,7 +12152,7 @@
         <v>54841</v>
       </c>
       <c r="B98" t="n">
-        <v>133473</v>
+        <v>164302</v>
       </c>
       <c r="C98" t="s">
         <v>919</v>
@@ -12223,7 +12223,7 @@
         <v>54841</v>
       </c>
       <c r="B99" t="n">
-        <v>133474</v>
+        <v>164303</v>
       </c>
       <c r="C99" t="s">
         <v>928</v>
@@ -12430,7 +12430,7 @@
         <v>54841</v>
       </c>
       <c r="B102" t="n">
-        <v>133475</v>
+        <v>164304</v>
       </c>
       <c r="C102" t="s">
         <v>956</v>
@@ -12501,7 +12501,7 @@
         <v>54841</v>
       </c>
       <c r="B103" t="n">
-        <v>133476</v>
+        <v>164305</v>
       </c>
       <c r="C103" t="s">
         <v>965</v>
@@ -12641,7 +12641,7 @@
         <v>54841</v>
       </c>
       <c r="B105" t="n">
-        <v>133477</v>
+        <v>164306</v>
       </c>
       <c r="C105" t="s">
         <v>983</v>
@@ -12710,7 +12710,7 @@
         <v>54841</v>
       </c>
       <c r="B106" t="n">
-        <v>133478</v>
+        <v>164307</v>
       </c>
       <c r="C106" t="s">
         <v>992</v>
@@ -12850,7 +12850,7 @@
         <v>54841</v>
       </c>
       <c r="B108" t="n">
-        <v>133479</v>
+        <v>164308</v>
       </c>
       <c r="C108" t="s">
         <v>1010</v>
@@ -12992,7 +12992,7 @@
         <v>54841</v>
       </c>
       <c r="B110" t="n">
-        <v>133480</v>
+        <v>164309</v>
       </c>
       <c r="C110" t="s">
         <v>1029</v>
@@ -13053,7 +13053,7 @@
         <v>54841</v>
       </c>
       <c r="B111" t="n">
-        <v>133481</v>
+        <v>164310</v>
       </c>
       <c r="C111" t="s">
         <v>1036</v>
@@ -13128,7 +13128,7 @@
         <v>54841</v>
       </c>
       <c r="B112" t="n">
-        <v>133482</v>
+        <v>164311</v>
       </c>
       <c r="C112" t="s">
         <v>1046</v>
@@ -13203,7 +13203,7 @@
         <v>54841</v>
       </c>
       <c r="B113" t="n">
-        <v>133483</v>
+        <v>133429</v>
       </c>
       <c r="C113" t="s">
         <v>1055</v>
@@ -13278,7 +13278,7 @@
         <v>54841</v>
       </c>
       <c r="B114" t="n">
-        <v>133484</v>
+        <v>164312</v>
       </c>
       <c r="C114" t="s">
         <v>1064</v>
@@ -13353,7 +13353,7 @@
         <v>54841</v>
       </c>
       <c r="B115" t="n">
-        <v>133485</v>
+        <v>164313</v>
       </c>
       <c r="C115" t="s">
         <v>1072</v>
@@ -13428,7 +13428,7 @@
         <v>54841</v>
       </c>
       <c r="B116" t="n">
-        <v>133486</v>
+        <v>164314</v>
       </c>
       <c r="C116" t="s">
         <v>1082</v>
@@ -13578,7 +13578,7 @@
         <v>54841</v>
       </c>
       <c r="B118" t="n">
-        <v>133487</v>
+        <v>164315</v>
       </c>
       <c r="C118" t="s">
         <v>1097</v>
@@ -13653,7 +13653,7 @@
         <v>54841</v>
       </c>
       <c r="B119" t="n">
-        <v>133488</v>
+        <v>164316</v>
       </c>
       <c r="C119" t="s">
         <v>1106</v>
@@ -13728,7 +13728,7 @@
         <v>54841</v>
       </c>
       <c r="B120" t="n">
-        <v>133489</v>
+        <v>164317</v>
       </c>
       <c r="C120" t="s">
         <v>1116</v>
@@ -13953,7 +13953,7 @@
         <v>54841</v>
       </c>
       <c r="B123" t="n">
-        <v>133490</v>
+        <v>164318</v>
       </c>
       <c r="C123" t="s">
         <v>1143</v>
@@ -14028,7 +14028,7 @@
         <v>54841</v>
       </c>
       <c r="B124" t="n">
-        <v>133491</v>
+        <v>164319</v>
       </c>
       <c r="C124" t="s">
         <v>1153</v>
@@ -14103,7 +14103,7 @@
         <v>54841</v>
       </c>
       <c r="B125" t="n">
-        <v>133492</v>
+        <v>164320</v>
       </c>
       <c r="C125" t="s">
         <v>1162</v>
@@ -14178,7 +14178,7 @@
         <v>54841</v>
       </c>
       <c r="B126" t="n">
-        <v>133493</v>
+        <v>164321</v>
       </c>
       <c r="C126" t="s">
         <v>1172</v>
@@ -14318,7 +14318,7 @@
         <v>54841</v>
       </c>
       <c r="B128" t="n">
-        <v>133482</v>
+        <v>133429</v>
       </c>
       <c r="C128" t="s">
         <v>1055</v>
@@ -14393,7 +14393,7 @@
         <v>54841</v>
       </c>
       <c r="B129" t="n">
-        <v>133494</v>
+        <v>164322</v>
       </c>
       <c r="C129" t="s">
         <v>1198</v>
@@ -14468,7 +14468,7 @@
         <v>54841</v>
       </c>
       <c r="B130" t="n">
-        <v>133495</v>
+        <v>164323</v>
       </c>
       <c r="C130" t="s">
         <v>1208</v>
@@ -14539,7 +14539,7 @@
         <v>54841</v>
       </c>
       <c r="B131" t="n">
-        <v>133496</v>
+        <v>164324</v>
       </c>
       <c r="C131" t="s">
         <v>1215</v>
@@ -14610,7 +14610,7 @@
         <v>54841</v>
       </c>
       <c r="B132" t="n">
-        <v>133497</v>
+        <v>164325</v>
       </c>
       <c r="C132" t="s">
         <v>1224</v>
@@ -14685,7 +14685,7 @@
         <v>54841</v>
       </c>
       <c r="B133" t="n">
-        <v>133498</v>
+        <v>164326</v>
       </c>
       <c r="C133" t="s">
         <v>1234</v>
@@ -14760,7 +14760,7 @@
         <v>54841</v>
       </c>
       <c r="B134" t="n">
-        <v>133499</v>
+        <v>164327</v>
       </c>
       <c r="C134" t="s">
         <v>1240</v>
@@ -14908,7 +14908,7 @@
         <v>54841</v>
       </c>
       <c r="B136" t="n">
-        <v>133500</v>
+        <v>164328</v>
       </c>
       <c r="C136" t="s">
         <v>1260</v>
@@ -15050,7 +15050,7 @@
         <v>54841</v>
       </c>
       <c r="B138" t="n">
-        <v>133501</v>
+        <v>164329</v>
       </c>
       <c r="C138" t="s">
         <v>1278</v>
@@ -15125,7 +15125,7 @@
         <v>54841</v>
       </c>
       <c r="B139" t="n">
-        <v>133502</v>
+        <v>164330</v>
       </c>
       <c r="C139" t="s">
         <v>1285</v>
@@ -15190,7 +15190,7 @@
         <v>54841</v>
       </c>
       <c r="B140" t="n">
-        <v>133503</v>
+        <v>164331</v>
       </c>
       <c r="C140" t="s">
         <v>1295</v>
@@ -15265,7 +15265,7 @@
         <v>54841</v>
       </c>
       <c r="B141" t="n">
-        <v>133504</v>
+        <v>164332</v>
       </c>
       <c r="C141" t="s">
         <v>1305</v>
@@ -15340,7 +15340,7 @@
         <v>54841</v>
       </c>
       <c r="B142" t="n">
-        <v>133505</v>
+        <v>164333</v>
       </c>
       <c r="C142" t="s">
         <v>1315</v>
@@ -15415,7 +15415,7 @@
         <v>54841</v>
       </c>
       <c r="B143" t="n">
-        <v>133506</v>
+        <v>164334</v>
       </c>
       <c r="C143" t="s">
         <v>1321</v>
@@ -15490,7 +15490,7 @@
         <v>54841</v>
       </c>
       <c r="B144" t="n">
-        <v>133507</v>
+        <v>164335</v>
       </c>
       <c r="C144" t="s">
         <v>1331</v>
@@ -15565,7 +15565,7 @@
         <v>54841</v>
       </c>
       <c r="B145" t="n">
-        <v>133508</v>
+        <v>164336</v>
       </c>
       <c r="C145" t="s">
         <v>1338</v>
@@ -15711,7 +15711,7 @@
         <v>54841</v>
       </c>
       <c r="B147" t="n">
-        <v>133509</v>
+        <v>164337</v>
       </c>
       <c r="C147" t="s">
         <v>1357</v>
@@ -15786,7 +15786,7 @@
         <v>54841</v>
       </c>
       <c r="B148" t="n">
-        <v>133510</v>
+        <v>164338</v>
       </c>
       <c r="C148" t="s">
         <v>1367</v>
@@ -15861,7 +15861,7 @@
         <v>54841</v>
       </c>
       <c r="B149" t="n">
-        <v>133511</v>
+        <v>164339</v>
       </c>
       <c r="C149" t="s">
         <v>1374</v>
@@ -15936,7 +15936,7 @@
         <v>54841</v>
       </c>
       <c r="B150" t="n">
-        <v>133512</v>
+        <v>164340</v>
       </c>
       <c r="C150" t="s">
         <v>1383</v>
@@ -16011,7 +16011,7 @@
         <v>54841</v>
       </c>
       <c r="B151" t="n">
-        <v>133513</v>
+        <v>164341</v>
       </c>
       <c r="C151" t="s">
         <v>1393</v>
@@ -16086,7 +16086,7 @@
         <v>54841</v>
       </c>
       <c r="B152" t="n">
-        <v>133514</v>
+        <v>164342</v>
       </c>
       <c r="C152" t="s">
         <v>1403</v>
@@ -16311,7 +16311,7 @@
         <v>54841</v>
       </c>
       <c r="B155" t="n">
-        <v>133471</v>
+        <v>133435</v>
       </c>
       <c r="C155" t="s">
         <v>913</v>
@@ -16382,7 +16382,7 @@
         <v>54841</v>
       </c>
       <c r="B156" t="n">
-        <v>133515</v>
+        <v>164343</v>
       </c>
       <c r="C156" t="s">
         <v>1438</v>
@@ -16453,7 +16453,7 @@
         <v>54841</v>
       </c>
       <c r="B157" t="n">
-        <v>133516</v>
+        <v>164344</v>
       </c>
       <c r="C157" t="s">
         <v>1444</v>
@@ -16593,7 +16593,7 @@
         <v>54841</v>
       </c>
       <c r="B159" t="n">
-        <v>133517</v>
+        <v>164345</v>
       </c>
       <c r="C159" t="s">
         <v>1457</v>
@@ -16654,7 +16654,7 @@
         <v>54841</v>
       </c>
       <c r="B160" t="n">
-        <v>133518</v>
+        <v>164346</v>
       </c>
       <c r="C160" t="s">
         <v>1465</v>
@@ -16715,7 +16715,7 @@
         <v>54841</v>
       </c>
       <c r="B161" t="n">
-        <v>133519</v>
+        <v>164347</v>
       </c>
       <c r="C161" t="s">
         <v>1471</v>
@@ -16782,7 +16782,7 @@
         <v>54841</v>
       </c>
       <c r="B162" t="n">
-        <v>133520</v>
+        <v>164348</v>
       </c>
       <c r="C162" t="s">
         <v>1477</v>
@@ -16849,7 +16849,7 @@
         <v>54841</v>
       </c>
       <c r="B163" t="n">
-        <v>133521</v>
+        <v>164349</v>
       </c>
       <c r="C163" t="s">
         <v>1485</v>
@@ -16920,7 +16920,7 @@
         <v>54841</v>
       </c>
       <c r="B164" t="n">
-        <v>133522</v>
+        <v>164350</v>
       </c>
       <c r="C164" t="s">
         <v>1493</v>
@@ -16991,7 +16991,7 @@
         <v>54841</v>
       </c>
       <c r="B165" t="n">
-        <v>133523</v>
+        <v>164351</v>
       </c>
       <c r="C165" t="s">
         <v>1501</v>
@@ -17062,7 +17062,7 @@
         <v>54841</v>
       </c>
       <c r="B166" t="n">
-        <v>133524</v>
+        <v>164352</v>
       </c>
       <c r="C166" t="s">
         <v>1509</v>
@@ -17204,7 +17204,7 @@
         <v>54841</v>
       </c>
       <c r="B168" t="n">
-        <v>133525</v>
+        <v>164353</v>
       </c>
       <c r="C168" t="s">
         <v>1525</v>
@@ -17275,7 +17275,7 @@
         <v>54841</v>
       </c>
       <c r="B169" t="n">
-        <v>133526</v>
+        <v>164354</v>
       </c>
       <c r="C169" t="s">
         <v>1533</v>
@@ -17346,7 +17346,7 @@
         <v>54841</v>
       </c>
       <c r="B170" t="n">
-        <v>133527</v>
+        <v>164355</v>
       </c>
       <c r="C170" t="s">
         <v>1540</v>
@@ -17413,7 +17413,7 @@
         <v>54841</v>
       </c>
       <c r="B171" t="n">
-        <v>133528</v>
+        <v>164356</v>
       </c>
       <c r="C171" t="s">
         <v>1547</v>
@@ -17488,7 +17488,7 @@
         <v>54841</v>
       </c>
       <c r="B172" t="n">
-        <v>133529</v>
+        <v>164357</v>
       </c>
       <c r="C172" t="s">
         <v>1557</v>
@@ -17555,7 +17555,7 @@
         <v>54841</v>
       </c>
       <c r="B173" t="n">
-        <v>133530</v>
+        <v>164358</v>
       </c>
       <c r="C173" t="s">
         <v>1563</v>
@@ -17626,7 +17626,7 @@
         <v>54841</v>
       </c>
       <c r="B174" t="n">
-        <v>133531</v>
+        <v>164359</v>
       </c>
       <c r="C174" t="s">
         <v>1571</v>
@@ -17697,7 +17697,7 @@
         <v>54841</v>
       </c>
       <c r="B175" t="n">
-        <v>133532</v>
+        <v>164360</v>
       </c>
       <c r="C175" t="s">
         <v>1579</v>
@@ -17768,7 +17768,7 @@
         <v>54841</v>
       </c>
       <c r="B176" t="n">
-        <v>133533</v>
+        <v>164361</v>
       </c>
       <c r="C176" t="s">
         <v>1587</v>
@@ -17839,7 +17839,7 @@
         <v>54841</v>
       </c>
       <c r="B177" t="n">
-        <v>133534</v>
+        <v>164362</v>
       </c>
       <c r="C177" t="s">
         <v>1594</v>
@@ -17910,7 +17910,7 @@
         <v>54841</v>
       </c>
       <c r="B178" t="n">
-        <v>133535</v>
+        <v>164363</v>
       </c>
       <c r="C178" t="s">
         <v>1601</v>
@@ -17981,7 +17981,7 @@
         <v>54841</v>
       </c>
       <c r="B179" t="n">
-        <v>133536</v>
+        <v>164364</v>
       </c>
       <c r="C179" t="s">
         <v>1608</v>
@@ -18050,7 +18050,7 @@
         <v>54841</v>
       </c>
       <c r="B180" t="n">
-        <v>133537</v>
+        <v>164365</v>
       </c>
       <c r="C180" t="s">
         <v>1615</v>
@@ -18121,7 +18121,7 @@
         <v>54841</v>
       </c>
       <c r="B181" t="n">
-        <v>133538</v>
+        <v>164366</v>
       </c>
       <c r="C181" t="s">
         <v>1623</v>
@@ -18192,7 +18192,7 @@
         <v>54841</v>
       </c>
       <c r="B182" t="n">
-        <v>133539</v>
+        <v>164367</v>
       </c>
       <c r="C182" t="s">
         <v>1631</v>
@@ -18267,7 +18267,7 @@
         <v>54841</v>
       </c>
       <c r="B183" t="n">
-        <v>133540</v>
+        <v>164368</v>
       </c>
       <c r="C183" t="s">
         <v>1641</v>
@@ -18336,7 +18336,7 @@
         <v>54841</v>
       </c>
       <c r="B184" t="n">
-        <v>133541</v>
+        <v>164369</v>
       </c>
       <c r="C184" t="s">
         <v>1649</v>
@@ -18407,7 +18407,7 @@
         <v>54841</v>
       </c>
       <c r="B185" t="n">
-        <v>133542</v>
+        <v>164370</v>
       </c>
       <c r="C185" t="s">
         <v>1655</v>
